--- a/biology/Zoologie/Carcharhinidae/Carcharhinidae.xlsx
+++ b/biology/Zoologie/Carcharhinidae/Carcharhinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Carcharhinidés (Carcharhinidae) forment une famille de requins appartenant à l'ordre des Carcharhiniformes.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carcharhinidae vient du grec karcharos, « coupant », et du grec, rhinos, « nez »[1].
-Ce sont des requins carcharhiniformes caractéristiques, avec un corps fuselé et des nageoires triangulaires incurvées vers l'arrière. Ils sont de taille très variable, avec des yeux ronds, et dépourvus de fosses nasales, de barbilles ou de spiracles. Leurs dents sont monocuspides (mais souvent denticulées), et généralement tranchantes. Ils sont caractérisés par leurs 5 ouvertures branchiales, la dernière étant située au niveau de la base des nageoires pectorales[2].
-Ils sont principalement de type vivipare placentaire (ou vivipare gestant), c'est-à-dire qu'ils possèdent un placenta vitellin comme celui des mammifères évolués[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carcharhinidae vient du grec karcharos, « coupant », et du grec, rhinos, « nez ».
+Ce sont des requins carcharhiniformes caractéristiques, avec un corps fuselé et des nageoires triangulaires incurvées vers l'arrière. Ils sont de taille très variable, avec des yeux ronds, et dépourvus de fosses nasales, de barbilles ou de spiracles. Leurs dents sont monocuspides (mais souvent denticulées), et généralement tranchantes. Ils sont caractérisés par leurs 5 ouvertures branchiales, la dernière étant située au niveau de la base des nageoires pectorales.
+Ils sont principalement de type vivipare placentaire (ou vivipare gestant), c'est-à-dire qu'ils possèdent un placenta vitellin comme celui des mammifères évolués.
 Cette famille apparait au cours de l'Oligocène.
 </t>
         </is>
@@ -545,12 +559,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1896 par le naturaliste américain David Starr Jordan (1851-1931) et l'ichtyologiste américain Barton Warren Evermann (1853-1932)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1896 par le naturaliste américain David Starr Jordan (1851-1931) et l'ichtyologiste américain Barton Warren Evermann (1853-1932).
 Cette famille comprend traditionnellement une douzaine de genres distincts, mais la famille est largement dominée par son genre type, Carcharhinus, qui comptabilise 31 espèces sur les 53 que comporte ce groupe.
-Liste des genres
-Selon FishBase                                            (6 janvier 2014)[3] ITIS      (6 janvier 2014)[4] et World Register of Marine Species                               (6 janvier 2014)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carcharhinidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcharhinidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (6 janvier 2014) ITIS      (6 janvier 2014) et World Register of Marine Species                               (6 janvier 2014) :
 genre Carcharhinus Blainville, 1816 -- 31 espèces
 genre Galeocerdo Müller &amp; Henle, 1837 -- 1 espèce
 genre Glyphis Agassiz, 1843 -- 4 espèces
@@ -563,7 +614,7 @@
 genre Rhizoprionodon Whitley, 1929 -- 7 espèces
 genre Scoliodon Müller &amp; Henle, 1837 -- 2 espèces
 genre Triaenodon Müller &amp; Henle, 1837 -- 1 espèce
-Paleobiology Database                   (13 mars 2019)[6] y ajoute 6 genres éteints :
+Paleobiology Database                   (13 mars 2019) y ajoute 6 genres éteints :
 genre † Alopiopsis
 genre † Aprionodon
 genre † Eogaleus
